--- a/beacons_positions.xlsx
+++ b/beacons_positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -88,37 +88,166 @@
     <t xml:space="preserve">AC233F265CED</t>
   </si>
   <si>
+    <t xml:space="preserve">AC233FA104FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1045B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1059E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA105AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1059F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA104FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1044D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1051A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1051C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA104FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA105AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1044A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA105AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1059D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA105A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1050E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1044F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA103EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1059A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1050B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1045F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10461</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC233FA1045C</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA103E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA10461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA10467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA1045F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA10462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA1051F</t>
-  </si>
-  <si>
     <t xml:space="preserve">AC233FA1053A</t>
   </si>
   <si>
     <t xml:space="preserve">AC233FA10539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1053C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1046E</t>
   </si>
 </sst>
 </file>
@@ -198,12 +327,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -223,515 +352,1402 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="F45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="F46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="F47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="G49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="F54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/beacons_positions.xlsx
+++ b/beacons_positions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t xml:space="preserve">AC233FA1046E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1046F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA10542</t>
   </si>
 </sst>
 </file>
@@ -257,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -278,6 +284,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,7 +333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +343,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,18 +371,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I75" activeCellId="0" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -724,7 +743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -744,7 +763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -764,7 +783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -784,7 +803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -804,7 +823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -824,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -844,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -864,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -884,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -904,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -924,7 +943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -944,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -964,7 +983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -984,7 +1003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1024,7 +1043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1044,7 +1063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1084,7 +1103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -1144,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1204,7 +1223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -1284,7 +1303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -1324,7 +1343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -1364,7 +1383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -1404,7 +1423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -1444,7 +1463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1464,7 +1483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -1504,7 +1523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -1564,7 +1583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -1584,7 +1603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -1604,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -1644,7 +1663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -1664,7 +1683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -1704,7 +1723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -1724,7 +1743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -1741,6 +1760,40 @@
         <v>23</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>24</v>
       </c>
     </row>

--- a/beacons_positions.xlsx
+++ b/beacons_positions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">AC233FA10542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233F265CEE</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -284,11 +287,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,7 +331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,10 +346,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -371,18 +365,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I75" activeCellId="0" sqref="I75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1773,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E67" s="0" t="n">
@@ -1794,6 +1786,23 @@
         <v>23</v>
       </c>
       <c r="H67" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="0" t="s">
         <v>24</v>
       </c>
     </row>

--- a/beacons_positions.xlsx
+++ b/beacons_positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -88,15 +88,21 @@
     <t xml:space="preserve">AC233F265CED</t>
   </si>
   <si>
+    <t xml:space="preserve">AC233FA10542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC233FA1046F</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC233FA104FD</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e6</t>
-  </si>
-  <si>
     <t xml:space="preserve">AC233FA10451</t>
   </si>
   <si>
@@ -250,13 +256,7 @@
     <t xml:space="preserve">AC233FA1046E</t>
   </si>
   <si>
-    <t xml:space="preserve">AC233FA1046F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233FA10542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC233F265CEE</t>
+    <t xml:space="preserve">AC233FA1051F</t>
   </si>
 </sst>
 </file>
@@ -367,14 +367,16 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I67" activeCellId="0" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -723,10 +725,10 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
@@ -735,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -743,10 +745,10 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>23</v>
@@ -755,7 +757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -763,10 +765,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -775,7 +777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -783,10 +785,10 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
@@ -795,7 +797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -803,10 +805,10 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>23</v>
@@ -815,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -823,10 +825,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>23</v>
@@ -835,7 +837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -843,10 +845,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>23</v>
@@ -855,7 +857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -863,10 +865,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>23</v>
@@ -875,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -883,7 +885,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>1</v>
@@ -895,7 +897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -903,7 +905,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>1</v>
@@ -915,7 +917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -923,7 +925,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>1</v>
@@ -935,7 +937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -943,7 +945,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>1</v>
@@ -955,7 +957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -963,10 +965,10 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>23</v>
@@ -975,7 +977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -983,10 +985,10 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>23</v>
@@ -995,7 +997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1003,10 +1005,10 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>23</v>
@@ -1015,7 +1017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1023,10 +1025,10 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>23</v>
@@ -1035,7 +1037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1043,10 +1045,10 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>23</v>
@@ -1055,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1063,10 +1065,10 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>23</v>
@@ -1075,7 +1077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1083,10 +1085,10 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>23</v>
@@ -1095,7 +1097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1103,10 +1105,10 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>23</v>
@@ -1115,7 +1117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -1123,10 +1125,10 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>23</v>
@@ -1135,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -1143,10 +1145,10 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>23</v>
@@ -1155,7 +1157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1163,7 +1165,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>3</v>
@@ -1175,7 +1177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1183,7 +1185,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>3</v>
@@ -1195,7 +1197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -1323,10 +1325,10 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>23</v>
@@ -1335,7 +1337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -1343,10 +1345,10 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>23</v>
@@ -1355,7 +1357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -1363,10 +1365,10 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>23</v>
@@ -1375,7 +1377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -1383,11 +1385,11 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F47" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="G47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -1443,10 +1445,10 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>23</v>
@@ -1455,7 +1457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1463,10 +1465,10 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>23</v>
@@ -1475,7 +1477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>23</v>
@@ -1495,7 +1497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -1523,10 +1525,10 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>23</v>
@@ -1535,7 +1537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -1543,10 +1545,10 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>23</v>
@@ -1555,7 +1557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -1563,11 +1565,11 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -1583,11 +1585,11 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F57" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="G57" s="1" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -1603,11 +1605,11 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F58" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="G58" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -1623,10 +1625,10 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>23</v>
@@ -1635,7 +1637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -1643,10 +1645,10 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>23</v>
@@ -1655,7 +1657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -1683,10 +1685,10 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>23</v>
@@ -1695,7 +1697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>23</v>
@@ -1715,7 +1717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -1723,10 +1725,10 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>23</v>
@@ -1735,7 +1737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -1743,10 +1745,10 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>23</v>
@@ -1755,7 +1757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>77</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -1794,10 +1796,10 @@
         <v>78</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>23</v>
@@ -1809,7 +1811,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/beacons_positions.xlsx
+++ b/beacons_positions.xlsx
@@ -367,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I67" activeCellId="0" sqref="I67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,10 +765,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -965,7 +965,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>23</v>
@@ -1125,10 +1125,10 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>23</v>
@@ -1145,10 +1145,10 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>23</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>23</v>
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>23</v>
@@ -1525,10 +1525,10 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>23</v>
